--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3355672.133383307</v>
+        <v>3355156.503768949</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2104816.956126888</v>
+        <v>2104816.95612689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.903419785</v>
+        <v>826053.9034197858</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>338.6773891444291</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>89.47723988056545</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -709,7 +709,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047351</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>86.64940239199063</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.85875618177483</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>364.0756641498212</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>285.8222677061724</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -1062,22 +1062,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>95.35420068589659</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.5413370468854</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.52511808530807</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>197.7312750477681</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>154.0523448421394</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>129.2405072294739</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1378,19 +1378,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05474244684472125</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1432,13 +1432,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>32.33376274836512</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
         <v>37.77220663497643</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1584,16 +1584,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.593129366202</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1618,13 +1618,13 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>202.063266772734</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>128.1813886246135</v>
       </c>
       <c r="W14" t="n">
         <v>273.297770207079</v>
@@ -1785,7 +1785,7 @@
         <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1864,7 +1864,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422874638</v>
+        <v>6.593776422875433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541644</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
@@ -2326,7 +2326,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2338,7 +2338,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2386,7 +2386,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
@@ -2544,7 +2544,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2563,7 +2563,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>28.84940926028739</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2572,10 +2572,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>38.65591760717425</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662018</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2803,10 +2803,10 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>178.5902178321307</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>98.95015186497727</v>
       </c>
       <c r="H29" t="n">
         <v>226.8509454548578</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2857,7 +2857,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
         <v>37.77220663497641</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
@@ -3037,7 +3037,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F32" t="n">
         <v>282.3655247697376</v>
@@ -3049,7 +3049,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541626</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W32" t="n">
         <v>236.929075365811</v>
@@ -3097,7 +3097,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E34" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G34" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V34" t="n">
         <v>132.9595824117996</v>
@@ -3255,7 +3255,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3274,19 +3274,19 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.671158641293</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875539</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277607</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541626</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3334,7 +3334,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3492,7 +3492,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>322.2802739911202</v>
       </c>
       <c r="C41" t="n">
-        <v>315.034222218936</v>
+        <v>315.0342222189361</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3771932323363</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>324.3481653714582</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221593</v>
+        <v>338.5159698221594</v>
       </c>
       <c r="G41" t="n">
-        <v>334.8216036937141</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>137.213712050933</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.74422147529717</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519723</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>147.0560721530148</v>
@@ -3799,13 +3799,13 @@
         <v>178.9856780065847</v>
       </c>
       <c r="V41" t="n">
-        <v>24.67597871356993</v>
+        <v>264.4762169403541</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>293.0795204182327</v>
       </c>
       <c r="X41" t="n">
-        <v>311.348554753111</v>
+        <v>311.3485547531111</v>
       </c>
       <c r="Y41" t="n">
         <v>318.3162777254422</v>
@@ -3900,19 +3900,19 @@
         <v>109.1464142412256</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150796</v>
+        <v>94.29354249150802</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334769</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>79.7936997562268</v>
+        <v>79.79369975622686</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599407</v>
+        <v>81.54315117599413</v>
       </c>
       <c r="G43" t="n">
-        <v>92.20062775238553</v>
+        <v>33.00856599769365</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.5783987161135</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>159.1523370502856</v>
       </c>
       <c r="U43" t="n">
         <v>208.3748795773554</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642213</v>
+        <v>189.1100274642214</v>
       </c>
       <c r="W43" t="n">
-        <v>206.2875737849714</v>
+        <v>206.2875737849715</v>
       </c>
       <c r="X43" t="n">
-        <v>157.529994731684</v>
+        <v>157.5299947316841</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>322.2802739911202</v>
       </c>
       <c r="C44" t="n">
-        <v>315.034222218936</v>
+        <v>315.0342222189361</v>
       </c>
       <c r="D44" t="n">
-        <v>305.2719224037639</v>
+        <v>307.3771932323363</v>
       </c>
       <c r="E44" t="n">
         <v>324.3481653714582</v>
       </c>
       <c r="F44" t="n">
-        <v>338.5159698221593</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>334.8216036937141</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660116</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.74422147529717</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.63889524519729</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530148</v>
       </c>
       <c r="U44" t="n">
         <v>178.9856780065847</v>
@@ -4039,13 +4039,13 @@
         <v>264.4762169403541</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>293.0795204182327</v>
       </c>
       <c r="X44" t="n">
-        <v>311.348554753111</v>
+        <v>311.3485547531111</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.3162777254422</v>
+        <v>149.3971754549896</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412256</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>93.51508790247696</v>
+        <v>94.29354249150802</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334775</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.54315117599413</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058609</v>
+        <v>48.45245521058615</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161134</v>
+        <v>126.5783987161135</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502855</v>
+        <v>159.1523370502856</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773554</v>
+        <v>155.3324303502071</v>
       </c>
       <c r="V46" t="n">
-        <v>189.1100274642213</v>
+        <v>189.1100274642214</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2875737849714</v>
+        <v>206.2875737849715</v>
       </c>
       <c r="X46" t="n">
-        <v>157.529994731684</v>
+        <v>157.5299947316841</v>
       </c>
       <c r="Y46" t="n">
         <v>146.6714163083604</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.888704297768</v>
+        <v>1080.912515245606</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.888704297768</v>
+        <v>687.7370137485366</v>
       </c>
       <c r="D2" t="n">
-        <v>1681.888704297768</v>
+        <v>687.7370137485366</v>
       </c>
       <c r="E2" t="n">
-        <v>1339.790331424607</v>
+        <v>285.1534888650811</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4336,13 +4336,13 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
         <v>1832.61545280471</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V2" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W2" t="n">
-        <v>1681.888704297768</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.888704297768</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.888704297768</v>
+        <v>1080.912515245606</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
         <v>565.9357554231472</v>
@@ -4418,13 +4418,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.763130931309</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4433,28 +4433,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1951.406783011508</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="C4" t="n">
-        <v>1951.406783011508</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="D4" t="n">
-        <v>1951.406783011508</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E4" t="n">
-        <v>1951.406783011508</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F4" t="n">
-        <v>1951.406783011508</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G4" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2241.747515709757</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2038.931431892307</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>2038.931431892307</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>1951.406783011508</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V4" t="n">
-        <v>1951.406783011508</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="W4" t="n">
-        <v>1951.406783011508</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="X4" t="n">
-        <v>1951.406783011508</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="Y4" t="n">
-        <v>1951.406783011508</v>
+        <v>528.4517709299226</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1279.953688967018</v>
+        <v>1372.595574558694</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.953688967018</v>
+        <v>979.4200730616244</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.953688967018</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>358.4764287842802</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>851.7967205028091</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V5" t="n">
-        <v>2076.939143757814</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W5" t="n">
-        <v>2076.939143757814</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="X5" t="n">
-        <v>2076.939143757814</v>
+        <v>1372.595574558694</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.448434678415</v>
+        <v>1372.595574558694</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P6" t="n">
         <v>2131.28341352229</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>852.4426182128975</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="C7" t="n">
-        <v>682.2375002788867</v>
+        <v>233.3243533729269</v>
       </c>
       <c r="D7" t="n">
-        <v>526.6043871814015</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E7" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F7" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G7" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>852.4426182128975</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>852.4426182128975</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>852.4426182128975</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>852.4426182128975</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>852.4426182128975</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>852.4426182128975</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>852.4426182128975</v>
+        <v>811.8495511815956</v>
       </c>
       <c r="Y7" t="n">
-        <v>852.4426182128975</v>
+        <v>588.737489998239</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.882782488167</v>
+        <v>1575.70115429884</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.707280991098</v>
+        <v>1182.525652801771</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.707280991098</v>
+        <v>797.0845240184383</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>394.5009991349828</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
         <v>185.6500870090788</v>
@@ -4813,43 +4813,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1819.035227007271</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.544517927872</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
         <v>77.69124027544166</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>669.250574142199</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>403.2712289630232</v>
+        <v>818.2140257446376</v>
       </c>
       <c r="W10" t="n">
-        <v>403.2712289630232</v>
+        <v>534.8836236758152</v>
       </c>
       <c r="X10" t="n">
-        <v>403.2712289630232</v>
+        <v>300.8033014587983</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.2712289630232</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252416</v>
+        <v>1563.569031584451</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042535</v>
+        <v>1265.33421137457</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4357765463913</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="E11" t="n">
-        <v>423.7929329501241</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7376375492709</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244624</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244624</v>
@@ -5080,13 +5080,13 @@
         <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2465.185047580625</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>2170.67312380087</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>1869.123096008659</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445332</v>
@@ -5205,31 +5205,31 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858831</v>
@@ -5238,13 +5238,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
         <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1391.743918024177</v>
+        <v>1598.67307041405</v>
       </c>
       <c r="C14" t="n">
-        <v>1093.509097814296</v>
+        <v>1300.438250204169</v>
       </c>
       <c r="D14" t="n">
-        <v>803.0086503181521</v>
+        <v>1009.937802708025</v>
       </c>
       <c r="E14" t="n">
-        <v>495.365806721885</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F14" t="n">
-        <v>291.2614968504365</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2816.584415774169</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V14" t="n">
-        <v>2569.418287764875</v>
+        <v>2776.347440154748</v>
       </c>
       <c r="W14" t="n">
-        <v>2293.359934020351</v>
+        <v>2500.289086410224</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.848010240597</v>
+        <v>2205.777162630469</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.297982448386</v>
+        <v>1904.227134838259</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5415,16 +5415,16 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5442,13 +5442,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M16" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
@@ -5472,10 +5472,10 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
         <v>711.5230842553817</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5542,13 +5542,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5557,7 +5557,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5591,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229791</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222398</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960396</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343036</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655128</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072208</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964837994</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414175</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599514</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975438</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803422</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924142</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5770,7 +5770,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5779,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224688</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
         <v>542.6718405099314</v>
@@ -5983,10 +5983,10 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6007,7 +6007,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6016,22 +6016,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6065,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072666</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229836</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012521</v>
+        <v>278.5901810446688</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750519</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133159</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N25" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.171044252417</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C26" t="n">
-        <v>1021.936224042536</v>
+        <v>1382.881067245904</v>
       </c>
       <c r="D26" t="n">
-        <v>731.4357765463916</v>
+        <v>1092.38061974976</v>
       </c>
       <c r="E26" t="n">
-        <v>702.2949591117579</v>
+        <v>784.7377761534929</v>
       </c>
       <c r="F26" t="n">
-        <v>380.341201928924</v>
+        <v>462.784018970659</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>144.5619447458505</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002408</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2497.845413993115</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W26" t="n">
-        <v>2221.78706024859</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X26" t="n">
-        <v>1927.275136468836</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y26" t="n">
-        <v>1625.725108676625</v>
+        <v>1986.669951879994</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G28" t="n">
         <v>160.810741531167</v>
@@ -6384,7 +6384,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
@@ -6393,16 +6393,16 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N28" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P28" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q28" t="n">
         <v>1678.203301484817</v>
@@ -6417,19 +6417,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852104</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1686.255841803932</v>
+        <v>1609.543013684024</v>
       </c>
       <c r="C29" t="n">
-        <v>1388.021021594051</v>
+        <v>1311.308193474143</v>
       </c>
       <c r="D29" t="n">
-        <v>1097.520574097907</v>
+        <v>1020.807745977999</v>
       </c>
       <c r="E29" t="n">
-        <v>789.8777305016397</v>
+        <v>713.1649023817323</v>
       </c>
       <c r="F29" t="n">
-        <v>609.483571075245</v>
+        <v>391.2111451988984</v>
       </c>
       <c r="G29" t="n">
         <v>291.2614968504365</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
@@ -6481,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>2977.396464052381</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U29" t="n">
-        <v>2816.584415774168</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V29" t="n">
-        <v>2569.418287764875</v>
+        <v>2787.217383424722</v>
       </c>
       <c r="W29" t="n">
-        <v>2293.359934020351</v>
+        <v>2511.159029680198</v>
       </c>
       <c r="X29" t="n">
-        <v>2293.359934020351</v>
+        <v>2216.647105900443</v>
       </c>
       <c r="Y29" t="n">
-        <v>1991.80990622814</v>
+        <v>1915.097078108233</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F31" t="n">
         <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
         <v>125.3967468362513</v>
@@ -6627,7 +6627,7 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M31" t="n">
         <v>836.8050913469767</v>
@@ -6636,7 +6636,7 @@
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
@@ -6663,10 +6663,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H32" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6727,16 +6727,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
         <v>2405.467337224691</v>
@@ -6776,25 +6776,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M33" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072666</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
         <v>161.4017547291066</v>
@@ -6870,40 +6870,40 @@
         <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O34" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P34" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6967,22 +6967,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072666</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
@@ -7107,40 +7107,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214671</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498046</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7159,19 +7159,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7201,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O39" t="n">
         <v>1974.833293963354</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229987</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.009399256734</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879432</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1698.580899763311</v>
+        <v>1251.87295693521</v>
       </c>
       <c r="C41" t="n">
-        <v>1380.364513683578</v>
+        <v>933.656570855477</v>
       </c>
       <c r="D41" t="n">
-        <v>1069.882500317582</v>
+        <v>933.656570855477</v>
       </c>
       <c r="E41" t="n">
-        <v>742.2580908514624</v>
+        <v>606.0321613893575</v>
       </c>
       <c r="F41" t="n">
-        <v>400.3227677987762</v>
+        <v>264.0968383366712</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411552</v>
+        <v>264.0968383366712</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411552</v>
+        <v>125.4971291943147</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7429,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3014.401945564162</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2865.860458540915</v>
+        <v>2957.414898182529</v>
       </c>
       <c r="U41" t="n">
-        <v>2685.06684439285</v>
+        <v>2776.621284034464</v>
       </c>
       <c r="V41" t="n">
-        <v>2660.141613369042</v>
+        <v>2509.473590155318</v>
       </c>
       <c r="W41" t="n">
-        <v>2660.141613369042</v>
+        <v>2213.433670540941</v>
       </c>
       <c r="X41" t="n">
-        <v>2345.648123719435</v>
+        <v>1898.940180891334</v>
       </c>
       <c r="Y41" t="n">
-        <v>2024.116530057372</v>
+        <v>1577.408587229271</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2078.56213661202</v>
+        <v>353.673632170199</v>
       </c>
       <c r="C43" t="n">
-        <v>1983.316134095346</v>
+        <v>258.4276296535243</v>
       </c>
       <c r="D43" t="n">
-        <v>1902.642136415197</v>
+        <v>258.4276296535243</v>
       </c>
       <c r="E43" t="n">
-        <v>1822.042439691735</v>
+        <v>177.8279329300628</v>
       </c>
       <c r="F43" t="n">
-        <v>1739.675620322044</v>
+        <v>95.46111356037174</v>
       </c>
       <c r="G43" t="n">
-        <v>1646.543673097412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>1646.543673097412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>1646.543673097412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>1690.237359520506</v>
+        <v>105.8128141272091</v>
       </c>
       <c r="K43" t="n">
-        <v>1845.539829650979</v>
+        <v>261.115284257682</v>
       </c>
       <c r="L43" t="n">
-        <v>2083.13489854531</v>
+        <v>498.7103531520128</v>
       </c>
       <c r="M43" t="n">
-        <v>2342.893905904105</v>
+        <v>758.4693605108077</v>
       </c>
       <c r="N43" t="n">
-        <v>2599.550968955845</v>
+        <v>1015.126423562548</v>
       </c>
       <c r="O43" t="n">
-        <v>2835.723165018084</v>
+        <v>1251.298619624787</v>
       </c>
       <c r="P43" t="n">
-        <v>3029.066759815194</v>
+        <v>1444.642214421897</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812479</v>
       </c>
       <c r="R43" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.531839812479</v>
       </c>
       <c r="S43" t="n">
-        <v>3105.956385205776</v>
+        <v>1393.674871412364</v>
       </c>
       <c r="T43" t="n">
-        <v>3105.956385205776</v>
+        <v>1232.914934997934</v>
       </c>
       <c r="U43" t="n">
-        <v>2895.476708865013</v>
+        <v>1022.435258657171</v>
       </c>
       <c r="V43" t="n">
-        <v>2704.456479103173</v>
+        <v>831.4150288953315</v>
       </c>
       <c r="W43" t="n">
-        <v>2496.085192451687</v>
+        <v>623.0437422438451</v>
       </c>
       <c r="X43" t="n">
-        <v>2336.963985652006</v>
+        <v>463.9225354441643</v>
       </c>
       <c r="Y43" t="n">
-        <v>2188.811039885986</v>
+        <v>463.9225354441643</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1696.454363572834</v>
+        <v>1330.943873122337</v>
       </c>
       <c r="C44" t="n">
-        <v>1378.237977493101</v>
+        <v>1012.727487042604</v>
       </c>
       <c r="D44" t="n">
-        <v>1069.882500317582</v>
+        <v>702.2454736766074</v>
       </c>
       <c r="E44" t="n">
-        <v>742.2580908514624</v>
+        <v>374.621064210488</v>
       </c>
       <c r="F44" t="n">
-        <v>400.3227677987762</v>
+        <v>374.621064210488</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411552</v>
+        <v>374.621064210488</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411552</v>
+        <v>125.4971291943147</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="U44" t="n">
-        <v>2925.16277105771</v>
+        <v>2685.06684439285</v>
       </c>
       <c r="V44" t="n">
-        <v>2658.015077178565</v>
+        <v>2417.919150513705</v>
       </c>
       <c r="W44" t="n">
-        <v>2658.015077178565</v>
+        <v>2121.879230899328</v>
       </c>
       <c r="X44" t="n">
-        <v>2343.521587528958</v>
+        <v>1807.385741249721</v>
       </c>
       <c r="Y44" t="n">
-        <v>2021.989993866895</v>
+        <v>1656.479503416398</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7736,10 +7736,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.5788124540923</v>
+        <v>320.4059472706306</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411552</v>
+        <v>225.1599447539558</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411552</v>
+        <v>144.4859470738066</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411552</v>
+        <v>144.4859470738066</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
         <v>105.8128141272091</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576821</v>
+        <v>261.115284257682</v>
       </c>
       <c r="L46" t="n">
-        <v>498.710353152013</v>
+        <v>498.7103531520128</v>
       </c>
       <c r="M46" t="n">
-        <v>758.4693605108082</v>
+        <v>758.4693605108077</v>
       </c>
       <c r="N46" t="n">
         <v>1015.126423562548</v>
       </c>
       <c r="O46" t="n">
-        <v>1251.298619624788</v>
+        <v>1251.298619624787</v>
       </c>
       <c r="P46" t="n">
         <v>1444.642214421897</v>
@@ -7833,25 +7833,25 @@
         <v>1472.589965862392</v>
       </c>
       <c r="S46" t="n">
-        <v>1344.732997462278</v>
+        <v>1344.732997462277</v>
       </c>
       <c r="T46" t="n">
-        <v>1183.973061047848</v>
+        <v>1183.973061047847</v>
       </c>
       <c r="U46" t="n">
-        <v>973.4933847070849</v>
+        <v>1027.071616249658</v>
       </c>
       <c r="V46" t="n">
-        <v>782.4731549452453</v>
+        <v>836.0513864878185</v>
       </c>
       <c r="W46" t="n">
-        <v>574.1018682937589</v>
+        <v>627.6800998363321</v>
       </c>
       <c r="X46" t="n">
-        <v>414.980661494078</v>
+        <v>468.5588930366512</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.8277157280575</v>
+        <v>320.4059472706306</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8066,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N3" t="n">
-        <v>151.5659933015362</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8227,16 +8227,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>312.0396197609155</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8300,10 +8300,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>237.3130400541719</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>676.7842391234617</v>
@@ -8312,7 +8312,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8461,19 +8461,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>506.8283140129063</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>422.8212561536984</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>351.8313913012159</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>351.8313913012159</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9248,10 +9248,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9260,10 +9260,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,16 +9479,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9497,10 +9497,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9971,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
@@ -10205,13 +10205,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>292.8810966026122</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,16 +10436,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>280.580732999394</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>458.3628540128008</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10843,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10916,7 +10916,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>613.9497439416879</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.6794771641608</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>240.9640074587138</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>116.6709528382715</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>42.96247126414337</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>116.5130781045869</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>275.717005900017</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>188.1950278476835</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>140.1440017788748</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>216.0897016175831</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.3771932323363</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>334.8216036937142</v>
       </c>
       <c r="H41" t="n">
-        <v>246.6326956660115</v>
+        <v>109.4189836150786</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529711</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.63889524519729</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>239.8002382267842</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182327</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.86725770334775</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1613613460006746</v>
+        <v>59.35342310069261</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495825</v>
+        <v>79.7142412649583</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613018</v>
+        <v>57.55395684613023</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058609</v>
+        <v>48.45245521058615</v>
       </c>
       <c r="S43" t="n">
-        <v>126.5783987161134</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502855</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.6714163083604</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.105270828572316</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>338.5159698221594</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>334.8216036937142</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660115</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529711</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519723</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530148</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>293.0795204182327</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>168.9191022704526</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>109.1464142412256</v>
       </c>
       <c r="C46" t="n">
-        <v>0.778454589031</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334769</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>79.7936997562268</v>
+        <v>79.79369975622686</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599407</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.3619890983862</v>
+        <v>92.36198909838626</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495825</v>
+        <v>79.7142412649583</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613018</v>
+        <v>57.55395684613023</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>53.04244922714832</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>576993.1522866655</v>
+        <v>576993.1522866656</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576993.1522866656</v>
+        <v>576993.1522866655</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>549916.1125707007</v>
+        <v>549916.1125707006</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>703295.4945640913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>703295.4945640911</v>
+      </c>
+      <c r="D2" t="n">
         <v>703295.4945640912</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>660956.8784646287</v>
+      </c>
+      <c r="F2" t="n">
+        <v>660956.8784646298</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703295.4945640919</v>
+      </c>
+      <c r="H2" t="n">
         <v>703295.4945640913</v>
       </c>
-      <c r="D2" t="n">
-        <v>703295.4945640913</v>
-      </c>
-      <c r="E2" t="n">
-        <v>660956.8784646298</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>703295.4945640911</v>
+      </c>
+      <c r="J2" t="n">
         <v>660956.8784646296</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>660956.87846463</v>
+      </c>
+      <c r="L2" t="n">
         <v>703295.4945640911</v>
       </c>
-      <c r="H2" t="n">
-        <v>703295.4945640916</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703295.4945640914</v>
-      </c>
-      <c r="J2" t="n">
-        <v>660956.8784646288</v>
-      </c>
-      <c r="K2" t="n">
-        <v>660956.8784646291</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703295.4945640916</v>
-      </c>
       <c r="M2" t="n">
-        <v>703295.4945640913</v>
+        <v>703295.494564092</v>
       </c>
       <c r="N2" t="n">
-        <v>703295.4945640917</v>
+        <v>703295.4945640907</v>
       </c>
       <c r="O2" t="n">
-        <v>626892.2155961577</v>
+        <v>626892.2155961576</v>
       </c>
       <c r="P2" t="n">
-        <v>626892.2155961581</v>
+        <v>626892.2155961578</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301442</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>200837.4980720422</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602877</v>
+        <v>58189.91174602874</v>
       </c>
       <c r="M3" t="n">
         <v>46121.92123989166</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501488</v>
+        <v>1177.707664501387</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26441,10 +26441,10 @@
         <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="K4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="L4" t="n">
         <v>173460.5839839468</v>
@@ -26453,7 +26453,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="N4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
         <v>128865.9002561803</v>
@@ -26490,7 +26490,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>55112.2895089091</v>
@@ -26499,13 +26499,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>53449.25755040762</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>235384.2972372599</v>
+        <v>235384.2972372601</v>
       </c>
       <c r="C6" t="n">
-        <v>433580.1032290051</v>
+        <v>433580.1032290048</v>
       </c>
       <c r="D6" t="n">
-        <v>433580.1032290051</v>
+        <v>433580.1032290049</v>
       </c>
       <c r="E6" t="n">
-        <v>326535.3944775438</v>
+        <v>326426.8339234414</v>
       </c>
       <c r="F6" t="n">
-        <v>456988.3256152557</v>
+        <v>456879.7650611547</v>
       </c>
       <c r="G6" t="n">
-        <v>442570.1853916102</v>
+        <v>442570.1853916111</v>
       </c>
       <c r="H6" t="n">
-        <v>471665.1412646251</v>
+        <v>471665.1412646248</v>
       </c>
       <c r="I6" t="n">
-        <v>471665.1412646251</v>
+        <v>471665.1412646246</v>
       </c>
       <c r="J6" t="n">
-        <v>256150.8275432126</v>
+        <v>256042.2669891124</v>
       </c>
       <c r="K6" t="n">
-        <v>456988.3256152551</v>
+        <v>456879.7650611549</v>
       </c>
       <c r="L6" t="n">
-        <v>413475.2295185964</v>
+        <v>413475.2295185959</v>
       </c>
       <c r="M6" t="n">
-        <v>425543.2200247332</v>
+        <v>425543.2200247339</v>
       </c>
       <c r="N6" t="n">
-        <v>471665.1412646254</v>
+        <v>471665.1412646244</v>
       </c>
       <c r="O6" t="n">
-        <v>443399.3501250683</v>
+        <v>443203.4442815608</v>
       </c>
       <c r="P6" t="n">
-        <v>444577.0577895701</v>
+        <v>444381.1519460625</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="3">
@@ -26804,34 +26804,34 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="L4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126802</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253596</v>
+        <v>72.73738968253592</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47213458062686</v>
+        <v>1.472134580626734</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126802</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304846</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>59.88030049019176</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.2482542047566</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>195.9350014485274</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>252.4607955456092</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>17.51105334567774</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>52.86347349734439</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>27.30777878785221</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27839,10 +27839,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>96.19818194796127</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.9646801689748</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>214.9942190375539</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27912,16 +27912,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28067,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5320589983787</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>134.0790444979101</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28529,7 +28529,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431658</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
         <v>93.99127447431644</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668673</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28763,34 +28763,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155845</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2979821082766</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155845</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29219,11 +29219,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668719</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>28.01250026485211</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -29243,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>35.71049010668722</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.71049010668751</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -30179,19 +30179,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>128.2979821082769</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082772</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30404,28 +30404,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668872</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.636002634528836</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316271</v>
+        <v>74.20952426316265</v>
       </c>
     </row>
   </sheetData>
@@ -34704,16 +34704,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34786,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N3" t="n">
-        <v>66.19388044736954</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34947,16 +34947,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>162.9211284231314</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>144.92591800486</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>591.4121262692951</v>
@@ -35032,7 +35032,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35181,19 +35181,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>357.103262415179</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>330.4341341043865</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>259.444269251904</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>259.444269251904</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446907</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35980,10 +35980,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634527666</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36059,10 +36059,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36217,10 +36217,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36299,10 +36299,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.7547461184291</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835664</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528118</v>
       </c>
       <c r="K25" t="n">
-        <v>110.6741579516621</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36539,7 +36539,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36691,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>188.1936109500821</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>371.2794891934861</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434253</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37238,7 +37238,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>220.750524481646</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37247,7 +37247,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.16725411683999</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37484,10 +37484,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184294</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634528405</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37636,7 +37636,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>521.2621850527989</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529647</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873208</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37721,7 +37721,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100364</v>
+        <v>44.13503679100358</v>
       </c>
       <c r="K43" t="n">
-        <v>156.8711819499727</v>
+        <v>156.8711819499726</v>
       </c>
       <c r="L43" t="n">
-        <v>239.9950190851827</v>
+        <v>239.9950190851826</v>
       </c>
       <c r="M43" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159546</v>
       </c>
       <c r="N43" t="n">
         <v>259.2495586381215</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002415</v>
       </c>
       <c r="P43" t="n">
-        <v>195.2965604011209</v>
+        <v>195.2965604011208</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331519</v>
+        <v>77.66628827331513</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38037,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100364</v>
+        <v>44.13503679100358</v>
       </c>
       <c r="K46" t="n">
-        <v>156.8711819499727</v>
+        <v>156.8711819499726</v>
       </c>
       <c r="L46" t="n">
-        <v>239.9950190851827</v>
+        <v>239.9950190851826</v>
       </c>
       <c r="M46" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159546</v>
       </c>
       <c r="N46" t="n">
         <v>259.2495586381215</v>
       </c>
       <c r="O46" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002415</v>
       </c>
       <c r="P46" t="n">
-        <v>195.2965604011209</v>
+        <v>195.2965604011208</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331519</v>
+        <v>77.66628827331513</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
